--- a/doc/car.xlsx
+++ b/doc/car.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Car_Tracking\Code\Car_Tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1103,15 +1103,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22005</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>328120</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1440,7 +1440,7 @@
   <dimension ref="B1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/car.xlsx
+++ b/doc/car.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Car_Tracking\Code\Car_Tracking\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <t>เสา</t>
   </si>
   <si>
-    <t>ระยะเสา-รถ(pixcel)</t>
+    <t>ระยะเสา - รถ(pixcel)</t>
   </si>
 </sst>
 </file>
@@ -65,8 +65,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -130,7 +133,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0469816272965886E-2"/>
+          <c:y val="0.19395851560221639"/>
+          <c:w val="0.88386351706036748"/>
+          <c:h val="0.72179024496937882"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -178,10 +191,52 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.16687707786526673"/>
-                  <c:y val="-0.1288801399825022"/>
+                  <c:x val="-0.27418657042869643"/>
+                  <c:y val="-5.9095217264508604E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -0.0014x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> + 1.8517x </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="th-TH" baseline="0"/>
+                      <a:t>+</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> 596.37</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -214,7 +269,79 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>Sheet1!$B$4:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>556.20100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>556.28800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>560.64599999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -280,78 +407,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>555</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>556</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>556.20100000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>556.28800000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>560.64599999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>561</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>562</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>563</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>565</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>566</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>569</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>578</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>582</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>587</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>597</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>613</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>621</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>639</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,7 +414,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-866E-4E8B-BA1E-4AAA5DBEE782}"/>
+              <c16:uniqueId val="{00000000-192A-41A8-94A8-FFD79349A24B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -371,11 +426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="577926464"/>
-        <c:axId val="577923840"/>
+        <c:axId val="520512592"/>
+        <c:axId val="520516528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="577926464"/>
+        <c:axId val="520512592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,12 +487,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577923840"/>
+        <c:crossAx val="520516528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="577923840"/>
+        <c:axId val="520516528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,7 +549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577926464"/>
+        <c:crossAx val="520512592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1103,23 +1158,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>22005</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>578069</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>172107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>328120</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>262759</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57807</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="แผนภูมิ 3">
+        <xdr:cNvPr id="3" name="แผนภูมิ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217DB8C5-C657-47EF-BCE5-60E12751A3B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B57D279-B11E-4D75-BF5D-3D54CEA07159}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,191 +1492,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C22"/>
+  <dimension ref="B3:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>556</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>3</v>
+        <v>555</v>
       </c>
       <c r="C4">
-        <v>556.20100000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>4</v>
+        <v>556</v>
       </c>
       <c r="C5">
-        <v>556.28800000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>5</v>
+        <v>556.20100000000002</v>
       </c>
       <c r="C6">
-        <v>560.64599999999996</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>6</v>
+        <v>556.28800000000001</v>
       </c>
       <c r="C7">
-        <v>561</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>7</v>
+        <v>560.64599999999996</v>
       </c>
       <c r="C8">
-        <v>562</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>8</v>
+        <v>561</v>
       </c>
       <c r="C9">
-        <v>563</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>9</v>
+        <v>562</v>
       </c>
       <c r="C10">
-        <v>565</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>10</v>
+        <v>563</v>
       </c>
       <c r="C11">
-        <v>566</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>11</v>
+        <v>565</v>
       </c>
       <c r="C12">
-        <v>569</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>12</v>
+        <v>566</v>
       </c>
       <c r="C13">
-        <v>575</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>13</v>
+        <v>569</v>
       </c>
       <c r="C14">
-        <v>578</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>14</v>
+        <v>575</v>
       </c>
       <c r="C15">
-        <v>582</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>15</v>
+        <v>578</v>
       </c>
       <c r="C16">
-        <v>587</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>16</v>
+        <v>582</v>
       </c>
       <c r="C17">
-        <v>597</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>17</v>
+        <v>587</v>
       </c>
       <c r="C18">
-        <v>613</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>18</v>
+        <v>597</v>
       </c>
       <c r="C19">
-        <v>621</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>19</v>
+        <v>613</v>
       </c>
       <c r="C20">
-        <v>639</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>20</v>
+        <v>621</v>
       </c>
       <c r="C21">
-        <v>667</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
+        <v>639</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>667</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>715</v>
+      </c>
+      <c r="C24">
         <v>21</v>
-      </c>
-      <c r="C22">
-        <v>715</v>
       </c>
     </row>
   </sheetData>
